--- a/Nobero-Mweb-AppiumSelenium-HyF-2023/testdata/excelFile/NoberoTestData.xlsx
+++ b/Nobero-Mweb-AppiumSelenium-HyF-2023/testdata/excelFile/NoberoTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +19,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>praveen</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>praveenbalraj98@gmail.com</t>
+  </si>
+  <si>
+    <t>hellohi123</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>suites</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>ZIP code</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>set Default address</t>
+  </si>
+  <si>
+    <t>tmrw</t>
+  </si>
+  <si>
+    <t>Kadubesenahalli</t>
+  </si>
+  <si>
+    <t>umiya business tech park</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +129,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,12 +417,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>560103</v>
+      </c>
+      <c r="L2">
+        <v>9987765432</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>